--- a/Code/Results/Cases/Case_5_186/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_186/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01251809119624</v>
+        <v>1.061376949907918</v>
       </c>
       <c r="D2">
-        <v>1.029152712189963</v>
+        <v>1.059268964046522</v>
       </c>
       <c r="E2">
-        <v>1.023598753302241</v>
+        <v>1.066137741294543</v>
       </c>
       <c r="F2">
-        <v>1.031384043595477</v>
+        <v>1.075198332236495</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052477141170099</v>
+        <v>1.046764804841948</v>
       </c>
       <c r="J2">
-        <v>1.034330727825529</v>
+        <v>1.066352946779297</v>
       </c>
       <c r="K2">
-        <v>1.040220311142513</v>
+        <v>1.061998929533475</v>
       </c>
       <c r="L2">
-        <v>1.034738825686393</v>
+        <v>1.06884909798615</v>
       </c>
       <c r="M2">
-        <v>1.042422800913474</v>
+        <v>1.07788553521846</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02180384513706</v>
+        <v>1.063115506579166</v>
       </c>
       <c r="D3">
-        <v>1.036393170665473</v>
+        <v>1.060615663001648</v>
       </c>
       <c r="E3">
-        <v>1.031826381720908</v>
+        <v>1.06770469937369</v>
       </c>
       <c r="F3">
-        <v>1.039961148387845</v>
+        <v>1.076849878206592</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05589635518141</v>
+        <v>1.047272688990758</v>
       </c>
       <c r="J3">
-        <v>1.041717262065276</v>
+        <v>1.067741759823266</v>
       </c>
       <c r="K3">
-        <v>1.046580643601356</v>
+        <v>1.063158477468313</v>
       </c>
       <c r="L3">
-        <v>1.042067610219691</v>
+        <v>1.070229715825731</v>
       </c>
       <c r="M3">
-        <v>1.050107028876963</v>
+        <v>1.079352306830528</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02759344630133</v>
+        <v>1.064237477795955</v>
       </c>
       <c r="D4">
-        <v>1.040909468770407</v>
+        <v>1.06148434080369</v>
       </c>
       <c r="E4">
-        <v>1.03695830548234</v>
+        <v>1.068715636053692</v>
       </c>
       <c r="F4">
-        <v>1.045314543505635</v>
+        <v>1.077915825873262</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058012199797642</v>
+        <v>1.047598461532076</v>
       </c>
       <c r="J4">
-        <v>1.046316710168275</v>
+        <v>1.06863710703458</v>
       </c>
       <c r="K4">
-        <v>1.050538004772422</v>
+        <v>1.063905521738345</v>
       </c>
       <c r="L4">
-        <v>1.046630235866017</v>
+        <v>1.071119587538364</v>
       </c>
       <c r="M4">
-        <v>1.05489517433536</v>
+        <v>1.080298215184433</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029978593553847</v>
+        <v>1.064708453617011</v>
       </c>
       <c r="D5">
-        <v>1.042770367404082</v>
+        <v>1.061848891014126</v>
       </c>
       <c r="E5">
-        <v>1.039072901876196</v>
+        <v>1.069139931483658</v>
       </c>
       <c r="F5">
-        <v>1.047521226755493</v>
+        <v>1.078363314474426</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058879948993111</v>
+        <v>1.047734736153023</v>
       </c>
       <c r="J5">
-        <v>1.048210033209341</v>
+        <v>1.06901273142618</v>
       </c>
       <c r="K5">
-        <v>1.052166241809051</v>
+        <v>1.064218808669961</v>
       </c>
       <c r="L5">
-        <v>1.048508190515536</v>
+        <v>1.071492868959049</v>
       </c>
       <c r="M5">
-        <v>1.056866957271387</v>
+        <v>1.08069512389279</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.030376306231706</v>
+        <v>1.064787491869682</v>
       </c>
       <c r="D6">
-        <v>1.043080678481564</v>
+        <v>1.061910063266479</v>
       </c>
       <c r="E6">
-        <v>1.039425521798466</v>
+        <v>1.069211131755968</v>
       </c>
       <c r="F6">
-        <v>1.047889251292781</v>
+        <v>1.078438412891996</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059024409735649</v>
+        <v>1.047757577524756</v>
       </c>
       <c r="J6">
-        <v>1.048525645142553</v>
+        <v>1.069075755054715</v>
       </c>
       <c r="K6">
-        <v>1.052437617949791</v>
+        <v>1.064271366036322</v>
       </c>
       <c r="L6">
-        <v>1.048821228086524</v>
+        <v>1.071555496791676</v>
       </c>
       <c r="M6">
-        <v>1.05719569402126</v>
+        <v>1.080761722931378</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027625504032031</v>
+        <v>1.064243773731071</v>
       </c>
       <c r="D7">
-        <v>1.040934479237784</v>
+        <v>1.061489214448989</v>
       </c>
       <c r="E7">
-        <v>1.036986725423605</v>
+        <v>1.068721308251307</v>
       </c>
       <c r="F7">
-        <v>1.045344197802503</v>
+        <v>1.077921807717316</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058023878460902</v>
+        <v>1.047600285105713</v>
       </c>
       <c r="J7">
-        <v>1.046342163605591</v>
+        <v>1.06864212919243</v>
       </c>
       <c r="K7">
-        <v>1.050559897572162</v>
+        <v>1.063909710907161</v>
       </c>
       <c r="L7">
-        <v>1.046655483533766</v>
+        <v>1.071124578550353</v>
       </c>
       <c r="M7">
-        <v>1.054921679479342</v>
+        <v>1.080303521632086</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01570387837171</v>
+        <v>1.061965131824152</v>
       </c>
       <c r="D8">
-        <v>1.031636289618362</v>
+        <v>1.059724658319984</v>
       </c>
       <c r="E8">
-        <v>1.02642101374334</v>
+        <v>1.066667929341762</v>
       </c>
       <c r="F8">
-        <v>1.034325438354988</v>
+        <v>1.075757049959424</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053653563296233</v>
+        <v>1.046937042460001</v>
       </c>
       <c r="J8">
-        <v>1.036866148598195</v>
+        <v>1.066822994961916</v>
       </c>
       <c r="K8">
-        <v>1.042404123102093</v>
+        <v>1.06239148549586</v>
       </c>
       <c r="L8">
-        <v>1.037254604479029</v>
+        <v>1.069316412467508</v>
       </c>
       <c r="M8">
-        <v>1.045059688338224</v>
+        <v>1.078381905973985</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9928339130543872</v>
+        <v>1.057926278518516</v>
       </c>
       <c r="D9">
-        <v>1.013822817713474</v>
+        <v>1.056593916734175</v>
       </c>
       <c r="E9">
-        <v>1.00617465969652</v>
+        <v>1.063026107187636</v>
       </c>
       <c r="F9">
-        <v>1.013240061193237</v>
+        <v>1.071921074080034</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045141585356603</v>
+        <v>1.04574616961598</v>
       </c>
       <c r="J9">
-        <v>1.018642287146412</v>
+        <v>1.063591560669157</v>
       </c>
       <c r="K9">
-        <v>1.026695540716368</v>
+        <v>1.059690746258059</v>
       </c>
       <c r="L9">
-        <v>1.019168345464883</v>
+        <v>1.066102971527099</v>
       </c>
       <c r="M9">
-        <v>1.026121918816074</v>
+        <v>1.074970759497736</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9760279126069141</v>
+        <v>1.055216881918178</v>
       </c>
       <c r="D10">
-        <v>1.000762064219641</v>
+        <v>1.054491703971967</v>
       </c>
       <c r="E10">
-        <v>0.9913213683727868</v>
+        <v>1.06058156944536</v>
       </c>
       <c r="F10">
-        <v>0.9977918517869289</v>
+        <v>1.069348503321493</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038804882106692</v>
+        <v>1.044937032602858</v>
       </c>
       <c r="J10">
-        <v>1.005226011864409</v>
+        <v>1.061419086660911</v>
       </c>
       <c r="K10">
-        <v>1.015117572979968</v>
+        <v>1.057872509297539</v>
       </c>
       <c r="L10">
-        <v>1.005849106329459</v>
+        <v>1.063941580305754</v>
       </c>
       <c r="M10">
-        <v>1.012201089814484</v>
+        <v>1.072679035291619</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9682945579787173</v>
+        <v>1.054039476293975</v>
       </c>
       <c r="D11">
-        <v>0.9947627173291586</v>
+        <v>1.053577698911988</v>
       </c>
       <c r="E11">
-        <v>0.9844950590396138</v>
+        <v>1.059518916211596</v>
       </c>
       <c r="F11">
-        <v>0.9906971971818483</v>
+        <v>1.068230739508573</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035871286836242</v>
+        <v>1.044582983561593</v>
       </c>
       <c r="J11">
-        <v>0.9990485044140638</v>
+        <v>1.06047389372397</v>
       </c>
       <c r="K11">
-        <v>1.00978408163189</v>
+        <v>1.057080839238977</v>
       </c>
       <c r="L11">
-        <v>0.9997154215809538</v>
+        <v>1.063000966382794</v>
       </c>
       <c r="M11">
-        <v>1.005796709321472</v>
+        <v>1.071682331557865</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9653444173066111</v>
+        <v>1.053601482877239</v>
       </c>
       <c r="D12">
-        <v>0.9924760323437015</v>
+        <v>1.053237622533504</v>
       </c>
       <c r="E12">
-        <v>0.9818924875308208</v>
+        <v>1.059123559119493</v>
       </c>
       <c r="F12">
-        <v>0.987993094499129</v>
+        <v>1.067814960944809</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034749680520063</v>
+        <v>1.044450913589351</v>
       </c>
       <c r="J12">
-        <v>0.9966914928982611</v>
+        <v>1.060122116153482</v>
       </c>
       <c r="K12">
-        <v>1.007748813396507</v>
+        <v>1.056786109889669</v>
       </c>
       <c r="L12">
-        <v>0.9973750202463476</v>
+        <v>1.062650856330956</v>
       </c>
       <c r="M12">
-        <v>1.003354000689539</v>
+        <v>1.071311438857024</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9659809104433796</v>
+        <v>1.053695463783194</v>
       </c>
       <c r="D13">
-        <v>0.9929692899032612</v>
+        <v>1.05331059627111</v>
       </c>
       <c r="E13">
-        <v>0.9824539180015095</v>
+        <v>1.059208393803261</v>
       </c>
       <c r="F13">
-        <v>0.9885763921248745</v>
+        <v>1.067904173888958</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034991776362645</v>
+        <v>1.04447926850947</v>
       </c>
       <c r="J13">
-        <v>0.9972000328968065</v>
+        <v>1.060197605143115</v>
       </c>
       <c r="K13">
-        <v>1.008187946940508</v>
+        <v>1.05684936076037</v>
       </c>
       <c r="L13">
-        <v>0.997879981110282</v>
+        <v>1.062725989145168</v>
       </c>
       <c r="M13">
-        <v>1.003880990504436</v>
+        <v>1.071391027289081</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9680523408255433</v>
+        <v>1.054003285042078</v>
       </c>
       <c r="D14">
-        <v>0.9945749302818908</v>
+        <v>1.053549599883853</v>
       </c>
       <c r="E14">
-        <v>0.9842813455545686</v>
+        <v>1.059486249030654</v>
       </c>
       <c r="F14">
-        <v>0.9904751305212562</v>
+        <v>1.068196383283605</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035779248197927</v>
+        <v>1.044572078085722</v>
       </c>
       <c r="J14">
-        <v>0.998854992144078</v>
+        <v>1.060444829861253</v>
       </c>
       <c r="K14">
-        <v>1.009616990070003</v>
+        <v>1.057056490516095</v>
       </c>
       <c r="L14">
-        <v>0.9995232751230807</v>
+        <v>1.062972041039321</v>
       </c>
       <c r="M14">
-        <v>1.005596143449759</v>
+        <v>1.071651687262974</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9693180295127795</v>
+        <v>1.054192856847981</v>
       </c>
       <c r="D15">
-        <v>0.9955562800745137</v>
+        <v>1.053696781408039</v>
       </c>
       <c r="E15">
-        <v>0.9853981547240329</v>
+        <v>1.059657359453904</v>
       </c>
       <c r="F15">
-        <v>0.9916356227195243</v>
+        <v>1.0683763442734</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036260089841615</v>
+        <v>1.044629186677986</v>
       </c>
       <c r="J15">
-        <v>0.9998661619435917</v>
+        <v>1.060597061171641</v>
       </c>
       <c r="K15">
-        <v>1.010490091142407</v>
+        <v>1.057184021120403</v>
       </c>
       <c r="L15">
-        <v>1.000527303730662</v>
+        <v>1.063123545308721</v>
       </c>
       <c r="M15">
-        <v>1.006644206170891</v>
+        <v>1.071812198882517</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9765308004976077</v>
+        <v>1.05529493197204</v>
       </c>
       <c r="D16">
-        <v>1.001152439715944</v>
+        <v>1.054552283690237</v>
       </c>
       <c r="E16">
-        <v>0.9917654686315318</v>
+        <v>1.060652005350228</v>
       </c>
       <c r="F16">
-        <v>0.9982535152858611</v>
+        <v>1.069422603629956</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038995298698213</v>
+        <v>1.044960451437828</v>
       </c>
       <c r="J16">
-        <v>1.00562765972671</v>
+        <v>1.061481719959844</v>
       </c>
       <c r="K16">
-        <v>1.015464300973713</v>
+        <v>1.057924956870776</v>
       </c>
       <c r="L16">
-        <v>1.006247888759363</v>
+        <v>1.064003905052445</v>
       </c>
       <c r="M16">
-        <v>1.01261760411188</v>
+        <v>1.072745089785632</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9809271358143943</v>
+        <v>1.05598509190728</v>
       </c>
       <c r="D17">
-        <v>1.004566395956223</v>
+        <v>1.055087908847166</v>
       </c>
       <c r="E17">
-        <v>0.9956488491634058</v>
+        <v>1.061274797149991</v>
       </c>
       <c r="F17">
-        <v>1.002291044173503</v>
+        <v>1.070077858936847</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040657989547539</v>
+        <v>1.045167253356162</v>
       </c>
       <c r="J17">
-        <v>1.00913851464038</v>
+        <v>1.062035428334256</v>
       </c>
       <c r="K17">
-        <v>1.018494830648534</v>
+        <v>1.058388549771934</v>
       </c>
       <c r="L17">
-        <v>1.009733602371534</v>
+        <v>1.064554857667894</v>
       </c>
       <c r="M17">
-        <v>1.016259021980562</v>
+        <v>1.073329086053814</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9834481181870866</v>
+        <v>1.056387244719836</v>
       </c>
       <c r="D18">
-        <v>1.006525015557343</v>
+        <v>1.055399970663222</v>
       </c>
       <c r="E18">
-        <v>0.9978764595780996</v>
+        <v>1.061637661563656</v>
       </c>
       <c r="F18">
-        <v>1.004607548800696</v>
+        <v>1.070459690487783</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041609761875975</v>
+        <v>1.045287522075185</v>
       </c>
       <c r="J18">
-        <v>1.011151356441424</v>
+        <v>1.062357964164014</v>
       </c>
       <c r="K18">
-        <v>1.020232061296633</v>
+        <v>1.05865853570823</v>
       </c>
       <c r="L18">
-        <v>1.011731949047872</v>
+        <v>1.064875764911991</v>
       </c>
       <c r="M18">
-        <v>1.018347221099474</v>
+        <v>1.073669300429439</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9843006080398917</v>
+        <v>1.056524300167526</v>
       </c>
       <c r="D19">
-        <v>1.00718749126905</v>
+        <v>1.055506315140133</v>
       </c>
       <c r="E19">
-        <v>0.9986298669883847</v>
+        <v>1.061761321685706</v>
       </c>
       <c r="F19">
-        <v>1.005391100815719</v>
+        <v>1.070589823303554</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041931324638737</v>
+        <v>1.045328470520918</v>
       </c>
       <c r="J19">
-        <v>1.011831944786842</v>
+        <v>1.062467867575767</v>
       </c>
       <c r="K19">
-        <v>1.020819417846504</v>
+        <v>1.058750523081291</v>
       </c>
       <c r="L19">
-        <v>1.012407622029382</v>
+        <v>1.064985109431448</v>
       </c>
       <c r="M19">
-        <v>1.019053373585904</v>
+        <v>1.073785233842665</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9804599922353001</v>
+        <v>1.055911086386574</v>
       </c>
       <c r="D20">
-        <v>1.004203535075879</v>
+        <v>1.055030478594899</v>
       </c>
       <c r="E20">
-        <v>0.9952361288833573</v>
+        <v>1.061208018926082</v>
       </c>
       <c r="F20">
-        <v>1.001861892126512</v>
+        <v>1.070007594406863</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040481488022773</v>
+        <v>1.045145102268322</v>
       </c>
       <c r="J20">
-        <v>1.008765498424241</v>
+        <v>1.061976065551843</v>
       </c>
       <c r="K20">
-        <v>1.018172870913897</v>
+        <v>1.058338854170219</v>
       </c>
       <c r="L20">
-        <v>1.00936326566405</v>
+        <v>1.064495792747074</v>
       </c>
       <c r="M20">
-        <v>1.015872081223969</v>
+        <v>1.07326647241641</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9674445808852169</v>
+        <v>1.053912657518112</v>
       </c>
       <c r="D21">
-        <v>0.9941037766468787</v>
+        <v>1.053479235235767</v>
       </c>
       <c r="E21">
-        <v>0.9837451315132179</v>
+        <v>1.059404445402539</v>
       </c>
       <c r="F21">
-        <v>0.9899179706193489</v>
+        <v>1.068110351359476</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035548269831442</v>
+        <v>1.044544763500219</v>
       </c>
       <c r="J21">
-        <v>0.9983694345240997</v>
+        <v>1.060372047536508</v>
       </c>
       <c r="K21">
-        <v>1.009197722475839</v>
+        <v>1.056995514503066</v>
       </c>
       <c r="L21">
-        <v>0.9990411428783046</v>
+        <v>1.062899605004453</v>
       </c>
       <c r="M21">
-        <v>1.005092901122219</v>
+        <v>1.071574948090332</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9588062594302066</v>
+        <v>1.052652381141078</v>
       </c>
       <c r="D22">
-        <v>0.9874123345405993</v>
+        <v>1.05250057807291</v>
       </c>
       <c r="E22">
-        <v>0.9761278299958844</v>
+        <v>1.058266753853072</v>
       </c>
       <c r="F22">
-        <v>0.982005004223036</v>
+        <v>1.066914049699697</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03225956327187</v>
+        <v>1.044164061188241</v>
       </c>
       <c r="J22">
-        <v>0.9914673471204645</v>
+        <v>1.059359533188599</v>
       </c>
       <c r="K22">
-        <v>1.003237348976932</v>
+        <v>1.056147033275771</v>
       </c>
       <c r="L22">
-        <v>0.9921875111703499</v>
+        <v>1.06189182087251</v>
       </c>
       <c r="M22">
-        <v>0.9979415776209961</v>
+        <v>1.070507520495797</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9634322463125572</v>
+        <v>1.053320842545804</v>
       </c>
       <c r="D23">
-        <v>0.9909944932064749</v>
+        <v>1.053019702792322</v>
       </c>
       <c r="E23">
-        <v>0.9802060724618475</v>
+        <v>1.058870223216248</v>
       </c>
       <c r="F23">
-        <v>0.9862411104792346</v>
+        <v>1.067548562611163</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034022019084538</v>
+        <v>1.044366188483059</v>
       </c>
       <c r="J23">
-        <v>0.9951636807601615</v>
+        <v>1.05989667089245</v>
       </c>
       <c r="K23">
-        <v>1.006429483998486</v>
+        <v>1.056597200323915</v>
       </c>
       <c r="L23">
-        <v>0.9958579465129573</v>
+        <v>1.062426469389805</v>
       </c>
       <c r="M23">
-        <v>1.00177089067587</v>
+        <v>1.071073758942465</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9806712075296209</v>
+        <v>1.055944527549459</v>
       </c>
       <c r="D24">
-        <v>1.004367596803731</v>
+        <v>1.055056429963859</v>
       </c>
       <c r="E24">
-        <v>0.9954227347317584</v>
+        <v>1.061238194365254</v>
       </c>
       <c r="F24">
-        <v>1.002055925910957</v>
+        <v>1.070039345059676</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040561296982094</v>
+        <v>1.045155112489346</v>
       </c>
       <c r="J24">
-        <v>1.008934155972267</v>
+        <v>1.062002890375389</v>
       </c>
       <c r="K24">
-        <v>1.018318444236639</v>
+        <v>1.058361310771013</v>
       </c>
       <c r="L24">
-        <v>1.009530711938515</v>
+        <v>1.06452248304527</v>
       </c>
       <c r="M24">
-        <v>1.016047033125885</v>
+        <v>1.073294766123912</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9989957730013483</v>
+        <v>1.058973313626454</v>
       </c>
       <c r="D25">
-        <v>1.018618369476946</v>
+        <v>1.057405890747682</v>
       </c>
       <c r="E25">
-        <v>1.011626210297817</v>
+        <v>1.063970478271022</v>
       </c>
       <c r="F25">
-        <v>1.018914109879127</v>
+        <v>1.0729153901222</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047449173000349</v>
+        <v>1.046056697567915</v>
       </c>
       <c r="J25">
-        <v>1.02355698071846</v>
+        <v>1.064430111371473</v>
       </c>
       <c r="K25">
-        <v>1.030934374390639</v>
+        <v>1.060392031867536</v>
       </c>
       <c r="L25">
-        <v>1.024046685959084</v>
+        <v>1.066937030238202</v>
       </c>
       <c r="M25">
-        <v>1.031225736261015</v>
+        <v>1.075855669620245</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_186/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_186/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.061376949907918</v>
+        <v>1.01251809119624</v>
       </c>
       <c r="D2">
-        <v>1.059268964046522</v>
+        <v>1.029152712189964</v>
       </c>
       <c r="E2">
-        <v>1.066137741294543</v>
+        <v>1.023598753302241</v>
       </c>
       <c r="F2">
-        <v>1.075198332236495</v>
+        <v>1.031384043595477</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046764804841948</v>
+        <v>1.052477141170099</v>
       </c>
       <c r="J2">
-        <v>1.066352946779297</v>
+        <v>1.034330727825529</v>
       </c>
       <c r="K2">
-        <v>1.061998929533475</v>
+        <v>1.040220311142514</v>
       </c>
       <c r="L2">
-        <v>1.06884909798615</v>
+        <v>1.034738825686392</v>
       </c>
       <c r="M2">
-        <v>1.07788553521846</v>
+        <v>1.042422800913473</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.063115506579166</v>
+        <v>1.02180384513706</v>
       </c>
       <c r="D3">
-        <v>1.060615663001648</v>
+        <v>1.036393170665473</v>
       </c>
       <c r="E3">
-        <v>1.06770469937369</v>
+        <v>1.031826381720908</v>
       </c>
       <c r="F3">
-        <v>1.076849878206592</v>
+        <v>1.039961148387846</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047272688990758</v>
+        <v>1.05589635518141</v>
       </c>
       <c r="J3">
-        <v>1.067741759823266</v>
+        <v>1.041717262065277</v>
       </c>
       <c r="K3">
-        <v>1.063158477468313</v>
+        <v>1.046580643601357</v>
       </c>
       <c r="L3">
-        <v>1.070229715825731</v>
+        <v>1.042067610219692</v>
       </c>
       <c r="M3">
-        <v>1.079352306830528</v>
+        <v>1.050107028876964</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.064237477795955</v>
+        <v>1.027593446301327</v>
       </c>
       <c r="D4">
-        <v>1.06148434080369</v>
+        <v>1.040909468770405</v>
       </c>
       <c r="E4">
-        <v>1.068715636053692</v>
+        <v>1.036958305482337</v>
       </c>
       <c r="F4">
-        <v>1.077915825873262</v>
+        <v>1.045314543505632</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047598461532076</v>
+        <v>1.058012199797641</v>
       </c>
       <c r="J4">
-        <v>1.06863710703458</v>
+        <v>1.046316710168272</v>
       </c>
       <c r="K4">
-        <v>1.063905521738345</v>
+        <v>1.050538004772419</v>
       </c>
       <c r="L4">
-        <v>1.071119587538364</v>
+        <v>1.046630235866014</v>
       </c>
       <c r="M4">
-        <v>1.080298215184433</v>
+        <v>1.054895174335357</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064708453617011</v>
+        <v>1.029978593553847</v>
       </c>
       <c r="D5">
-        <v>1.061848891014126</v>
+        <v>1.042770367404082</v>
       </c>
       <c r="E5">
-        <v>1.069139931483658</v>
+        <v>1.039072901876196</v>
       </c>
       <c r="F5">
-        <v>1.078363314474426</v>
+        <v>1.047521226755493</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047734736153023</v>
+        <v>1.058879948993111</v>
       </c>
       <c r="J5">
-        <v>1.06901273142618</v>
+        <v>1.048210033209341</v>
       </c>
       <c r="K5">
-        <v>1.064218808669961</v>
+        <v>1.052166241809051</v>
       </c>
       <c r="L5">
-        <v>1.071492868959049</v>
+        <v>1.048508190515536</v>
       </c>
       <c r="M5">
-        <v>1.08069512389279</v>
+        <v>1.056866957271387</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064787491869682</v>
+        <v>1.030376306231705</v>
       </c>
       <c r="D6">
-        <v>1.061910063266479</v>
+        <v>1.043080678481563</v>
       </c>
       <c r="E6">
-        <v>1.069211131755968</v>
+        <v>1.039425521798465</v>
       </c>
       <c r="F6">
-        <v>1.078438412891996</v>
+        <v>1.047889251292781</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047757577524756</v>
+        <v>1.059024409735649</v>
       </c>
       <c r="J6">
-        <v>1.069075755054715</v>
+        <v>1.048525645142553</v>
       </c>
       <c r="K6">
-        <v>1.064271366036322</v>
+        <v>1.05243761794979</v>
       </c>
       <c r="L6">
-        <v>1.071555496791676</v>
+        <v>1.048821228086523</v>
       </c>
       <c r="M6">
-        <v>1.080761722931378</v>
+        <v>1.057195694021259</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.064243773731071</v>
+        <v>1.027625504032031</v>
       </c>
       <c r="D7">
-        <v>1.061489214448989</v>
+        <v>1.040934479237783</v>
       </c>
       <c r="E7">
-        <v>1.068721308251307</v>
+        <v>1.036986725423605</v>
       </c>
       <c r="F7">
-        <v>1.077921807717316</v>
+        <v>1.045344197802503</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047600285105713</v>
+        <v>1.058023878460902</v>
       </c>
       <c r="J7">
-        <v>1.06864212919243</v>
+        <v>1.04634216360559</v>
       </c>
       <c r="K7">
-        <v>1.063909710907161</v>
+        <v>1.050559897572162</v>
       </c>
       <c r="L7">
-        <v>1.071124578550353</v>
+        <v>1.046655483533765</v>
       </c>
       <c r="M7">
-        <v>1.080303521632086</v>
+        <v>1.054921679479342</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.061965131824152</v>
+        <v>1.015703878371709</v>
       </c>
       <c r="D8">
-        <v>1.059724658319984</v>
+        <v>1.031636289618361</v>
       </c>
       <c r="E8">
-        <v>1.066667929341762</v>
+        <v>1.026421013743339</v>
       </c>
       <c r="F8">
-        <v>1.075757049959424</v>
+        <v>1.034325438354986</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046937042460001</v>
+        <v>1.053653563296232</v>
       </c>
       <c r="J8">
-        <v>1.066822994961916</v>
+        <v>1.036866148598194</v>
       </c>
       <c r="K8">
-        <v>1.06239148549586</v>
+        <v>1.042404123102091</v>
       </c>
       <c r="L8">
-        <v>1.069316412467508</v>
+        <v>1.037254604479028</v>
       </c>
       <c r="M8">
-        <v>1.078381905973985</v>
+        <v>1.045059688338223</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.057926278518516</v>
+        <v>0.9928339130543857</v>
       </c>
       <c r="D9">
-        <v>1.056593916734175</v>
+        <v>1.013822817713472</v>
       </c>
       <c r="E9">
-        <v>1.063026107187636</v>
+        <v>1.006174659696519</v>
       </c>
       <c r="F9">
-        <v>1.071921074080034</v>
+        <v>1.013240061193235</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04574616961598</v>
+        <v>1.045141585356602</v>
       </c>
       <c r="J9">
-        <v>1.063591560669157</v>
+        <v>1.01864228714641</v>
       </c>
       <c r="K9">
-        <v>1.059690746258059</v>
+        <v>1.026695540716366</v>
       </c>
       <c r="L9">
-        <v>1.066102971527099</v>
+        <v>1.019168345464881</v>
       </c>
       <c r="M9">
-        <v>1.074970759497736</v>
+        <v>1.026121918816072</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.055216881918178</v>
+        <v>0.976027912606914</v>
       </c>
       <c r="D10">
-        <v>1.054491703971967</v>
+        <v>1.000762064219642</v>
       </c>
       <c r="E10">
-        <v>1.06058156944536</v>
+        <v>0.9913213683727865</v>
       </c>
       <c r="F10">
-        <v>1.069348503321493</v>
+        <v>0.9977918517869286</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044937032602858</v>
+        <v>1.038804882106692</v>
       </c>
       <c r="J10">
-        <v>1.061419086660911</v>
+        <v>1.005226011864409</v>
       </c>
       <c r="K10">
-        <v>1.057872509297539</v>
+        <v>1.015117572979967</v>
       </c>
       <c r="L10">
-        <v>1.063941580305754</v>
+        <v>1.005849106329459</v>
       </c>
       <c r="M10">
-        <v>1.072679035291619</v>
+        <v>1.012201089814484</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.054039476293975</v>
+        <v>0.9682945579787152</v>
       </c>
       <c r="D11">
-        <v>1.053577698911988</v>
+        <v>0.9947627173291568</v>
       </c>
       <c r="E11">
-        <v>1.059518916211596</v>
+        <v>0.9844950590396119</v>
       </c>
       <c r="F11">
-        <v>1.068230739508573</v>
+        <v>0.9906971971818463</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044582983561593</v>
+        <v>1.035871286836241</v>
       </c>
       <c r="J11">
-        <v>1.06047389372397</v>
+        <v>0.9990485044140618</v>
       </c>
       <c r="K11">
-        <v>1.057080839238977</v>
+        <v>1.009784081631888</v>
       </c>
       <c r="L11">
-        <v>1.063000966382794</v>
+        <v>0.9997154215809521</v>
       </c>
       <c r="M11">
-        <v>1.071682331557865</v>
+        <v>1.00579670932147</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.053601482877239</v>
+        <v>0.9653444173066137</v>
       </c>
       <c r="D12">
-        <v>1.053237622533504</v>
+        <v>0.9924760323437039</v>
       </c>
       <c r="E12">
-        <v>1.059123559119493</v>
+        <v>0.9818924875308227</v>
       </c>
       <c r="F12">
-        <v>1.067814960944809</v>
+        <v>0.9879930944991311</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044450913589351</v>
+        <v>1.034749680520064</v>
       </c>
       <c r="J12">
-        <v>1.060122116153482</v>
+        <v>0.9966914928982632</v>
       </c>
       <c r="K12">
-        <v>1.056786109889669</v>
+        <v>1.007748813396509</v>
       </c>
       <c r="L12">
-        <v>1.062650856330956</v>
+        <v>0.9973750202463496</v>
       </c>
       <c r="M12">
-        <v>1.071311438857024</v>
+        <v>1.003354000689541</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.053695463783194</v>
+        <v>0.9659809104433771</v>
       </c>
       <c r="D13">
-        <v>1.05331059627111</v>
+        <v>0.9929692899032591</v>
       </c>
       <c r="E13">
-        <v>1.059208393803261</v>
+        <v>0.9824539180015071</v>
       </c>
       <c r="F13">
-        <v>1.067904173888958</v>
+        <v>0.988576392124872</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04447926850947</v>
+        <v>1.034991776362644</v>
       </c>
       <c r="J13">
-        <v>1.060197605143115</v>
+        <v>0.9972000328968041</v>
       </c>
       <c r="K13">
-        <v>1.05684936076037</v>
+        <v>1.008187946940506</v>
       </c>
       <c r="L13">
-        <v>1.062725989145168</v>
+        <v>0.9978799811102794</v>
       </c>
       <c r="M13">
-        <v>1.071391027289081</v>
+        <v>1.003880990504433</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.054003285042078</v>
+        <v>0.9680523408255417</v>
       </c>
       <c r="D14">
-        <v>1.053549599883853</v>
+        <v>0.9945749302818891</v>
       </c>
       <c r="E14">
-        <v>1.059486249030654</v>
+        <v>0.9842813455545668</v>
       </c>
       <c r="F14">
-        <v>1.068196383283605</v>
+        <v>0.9904751305212547</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044572078085722</v>
+        <v>1.035779248197926</v>
       </c>
       <c r="J14">
-        <v>1.060444829861253</v>
+        <v>0.9988549921440766</v>
       </c>
       <c r="K14">
-        <v>1.057056490516095</v>
+        <v>1.009616990070002</v>
       </c>
       <c r="L14">
-        <v>1.062972041039321</v>
+        <v>0.9995232751230789</v>
       </c>
       <c r="M14">
-        <v>1.071651687262974</v>
+        <v>1.005596143449757</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.054192856847981</v>
+        <v>0.9693180295127769</v>
       </c>
       <c r="D15">
-        <v>1.053696781408039</v>
+        <v>0.9955562800745115</v>
       </c>
       <c r="E15">
-        <v>1.059657359453904</v>
+        <v>0.9853981547240307</v>
       </c>
       <c r="F15">
-        <v>1.0683763442734</v>
+        <v>0.991635622719522</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044629186677986</v>
+        <v>1.036260089841614</v>
       </c>
       <c r="J15">
-        <v>1.060597061171641</v>
+        <v>0.9998661619435891</v>
       </c>
       <c r="K15">
-        <v>1.057184021120403</v>
+        <v>1.010490091142405</v>
       </c>
       <c r="L15">
-        <v>1.063123545308721</v>
+        <v>1.00052730373066</v>
       </c>
       <c r="M15">
-        <v>1.071812198882517</v>
+        <v>1.006644206170888</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.05529493197204</v>
+        <v>0.9765308004976089</v>
       </c>
       <c r="D16">
-        <v>1.054552283690237</v>
+        <v>1.001152439715945</v>
       </c>
       <c r="E16">
-        <v>1.060652005350228</v>
+        <v>0.991765468631533</v>
       </c>
       <c r="F16">
-        <v>1.069422603629956</v>
+        <v>0.9982535152858624</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044960451437828</v>
+        <v>1.038995298698213</v>
       </c>
       <c r="J16">
-        <v>1.061481719959844</v>
+        <v>1.005627659726711</v>
       </c>
       <c r="K16">
-        <v>1.057924956870776</v>
+        <v>1.015464300973714</v>
       </c>
       <c r="L16">
-        <v>1.064003905052445</v>
+        <v>1.006247888759364</v>
       </c>
       <c r="M16">
-        <v>1.072745089785632</v>
+        <v>1.012617604111881</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05598509190728</v>
+        <v>0.9809271358143924</v>
       </c>
       <c r="D17">
-        <v>1.055087908847166</v>
+        <v>1.004566395956222</v>
       </c>
       <c r="E17">
-        <v>1.061274797149991</v>
+        <v>0.9956488491634042</v>
       </c>
       <c r="F17">
-        <v>1.070077858936847</v>
+        <v>1.002291044173501</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045167253356162</v>
+        <v>1.040657989547538</v>
       </c>
       <c r="J17">
-        <v>1.062035428334256</v>
+        <v>1.009138514640379</v>
       </c>
       <c r="K17">
-        <v>1.058388549771934</v>
+        <v>1.018494830648532</v>
       </c>
       <c r="L17">
-        <v>1.064554857667894</v>
+        <v>1.009733602371532</v>
       </c>
       <c r="M17">
-        <v>1.073329086053814</v>
+        <v>1.01625902198056</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.056387244719836</v>
+        <v>0.9834481181870874</v>
       </c>
       <c r="D18">
-        <v>1.055399970663222</v>
+        <v>1.006525015557344</v>
       </c>
       <c r="E18">
-        <v>1.061637661563656</v>
+        <v>0.9978764595781002</v>
       </c>
       <c r="F18">
-        <v>1.070459690487783</v>
+        <v>1.004607548800696</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045287522075185</v>
+        <v>1.041609761875976</v>
       </c>
       <c r="J18">
-        <v>1.062357964164014</v>
+        <v>1.011151356441425</v>
       </c>
       <c r="K18">
-        <v>1.05865853570823</v>
+        <v>1.020232061296634</v>
       </c>
       <c r="L18">
-        <v>1.064875764911991</v>
+        <v>1.011731949047873</v>
       </c>
       <c r="M18">
-        <v>1.073669300429439</v>
+        <v>1.018347221099475</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056524300167526</v>
+        <v>0.9843006080398916</v>
       </c>
       <c r="D19">
-        <v>1.055506315140133</v>
+        <v>1.00718749126905</v>
       </c>
       <c r="E19">
-        <v>1.061761321685706</v>
+        <v>0.9986298669883847</v>
       </c>
       <c r="F19">
-        <v>1.070589823303554</v>
+        <v>1.00539110081572</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045328470520918</v>
+        <v>1.041931324638737</v>
       </c>
       <c r="J19">
-        <v>1.062467867575767</v>
+        <v>1.011831944786842</v>
       </c>
       <c r="K19">
-        <v>1.058750523081291</v>
+        <v>1.020819417846504</v>
       </c>
       <c r="L19">
-        <v>1.064985109431448</v>
+        <v>1.012407622029382</v>
       </c>
       <c r="M19">
-        <v>1.073785233842665</v>
+        <v>1.019053373585905</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.055911086386574</v>
+        <v>0.9804599922352955</v>
       </c>
       <c r="D20">
-        <v>1.055030478594899</v>
+        <v>1.004203535075875</v>
       </c>
       <c r="E20">
-        <v>1.061208018926082</v>
+        <v>0.9952361288833522</v>
       </c>
       <c r="F20">
-        <v>1.070007594406863</v>
+        <v>1.001861892126507</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045145102268322</v>
+        <v>1.040481488022771</v>
       </c>
       <c r="J20">
-        <v>1.061976065551843</v>
+        <v>1.008765498424236</v>
       </c>
       <c r="K20">
-        <v>1.058338854170219</v>
+        <v>1.018172870913893</v>
       </c>
       <c r="L20">
-        <v>1.064495792747074</v>
+        <v>1.009363265664045</v>
       </c>
       <c r="M20">
-        <v>1.07326647241641</v>
+        <v>1.015872081223965</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.053912657518112</v>
+        <v>0.9674445808852207</v>
       </c>
       <c r="D21">
-        <v>1.053479235235767</v>
+        <v>0.9941037766468818</v>
       </c>
       <c r="E21">
-        <v>1.059404445402539</v>
+        <v>0.9837451315132213</v>
       </c>
       <c r="F21">
-        <v>1.068110351359476</v>
+        <v>0.9899179706193522</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044544763500219</v>
+        <v>1.035548269831443</v>
       </c>
       <c r="J21">
-        <v>1.060372047536508</v>
+        <v>0.9983694345241033</v>
       </c>
       <c r="K21">
-        <v>1.056995514503066</v>
+        <v>1.009197722475842</v>
       </c>
       <c r="L21">
-        <v>1.062899605004453</v>
+        <v>0.999041142878308</v>
       </c>
       <c r="M21">
-        <v>1.071574948090332</v>
+        <v>1.005092901122222</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.052652381141078</v>
+        <v>0.9588062594302076</v>
       </c>
       <c r="D22">
-        <v>1.05250057807291</v>
+        <v>0.9874123345406001</v>
       </c>
       <c r="E22">
-        <v>1.058266753853072</v>
+        <v>0.9761278299958855</v>
       </c>
       <c r="F22">
-        <v>1.066914049699697</v>
+        <v>0.982005004223037</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044164061188241</v>
+        <v>1.03225956327187</v>
       </c>
       <c r="J22">
-        <v>1.059359533188599</v>
+        <v>0.9914673471204655</v>
       </c>
       <c r="K22">
-        <v>1.056147033275771</v>
+        <v>1.003237348976932</v>
       </c>
       <c r="L22">
-        <v>1.06189182087251</v>
+        <v>0.9921875111703511</v>
       </c>
       <c r="M22">
-        <v>1.070507520495797</v>
+        <v>0.9979415776209973</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.053320842545804</v>
+        <v>0.9634322463125581</v>
       </c>
       <c r="D23">
-        <v>1.053019702792322</v>
+        <v>0.9909944932064751</v>
       </c>
       <c r="E23">
-        <v>1.058870223216248</v>
+        <v>0.9802060724618483</v>
       </c>
       <c r="F23">
-        <v>1.067548562611163</v>
+        <v>0.9862411104792356</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044366188483059</v>
+        <v>1.034022019084538</v>
       </c>
       <c r="J23">
-        <v>1.05989667089245</v>
+        <v>0.9951636807601623</v>
       </c>
       <c r="K23">
-        <v>1.056597200323915</v>
+        <v>1.006429483998487</v>
       </c>
       <c r="L23">
-        <v>1.062426469389805</v>
+        <v>0.9958579465129581</v>
       </c>
       <c r="M23">
-        <v>1.071073758942465</v>
+        <v>1.001770890675871</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.055944527549459</v>
+        <v>0.9806712075296214</v>
       </c>
       <c r="D24">
-        <v>1.055056429963859</v>
+        <v>1.004367596803731</v>
       </c>
       <c r="E24">
-        <v>1.061238194365254</v>
+        <v>0.9954227347317589</v>
       </c>
       <c r="F24">
-        <v>1.070039345059676</v>
+        <v>1.002055925910958</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045155112489346</v>
+        <v>1.040561296982094</v>
       </c>
       <c r="J24">
-        <v>1.062002890375389</v>
+        <v>1.008934155972268</v>
       </c>
       <c r="K24">
-        <v>1.058361310771013</v>
+        <v>1.018318444236639</v>
       </c>
       <c r="L24">
-        <v>1.06452248304527</v>
+        <v>1.009530711938516</v>
       </c>
       <c r="M24">
-        <v>1.073294766123912</v>
+        <v>1.016047033125886</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.058973313626454</v>
+        <v>0.9989957730013475</v>
       </c>
       <c r="D25">
-        <v>1.057405890747682</v>
+        <v>1.018618369476945</v>
       </c>
       <c r="E25">
-        <v>1.063970478271022</v>
+        <v>1.011626210297817</v>
       </c>
       <c r="F25">
-        <v>1.0729153901222</v>
+        <v>1.018914109879126</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046056697567915</v>
+        <v>1.047449173000348</v>
       </c>
       <c r="J25">
-        <v>1.064430111371473</v>
+        <v>1.023556980718459</v>
       </c>
       <c r="K25">
-        <v>1.060392031867536</v>
+        <v>1.030934374390638</v>
       </c>
       <c r="L25">
-        <v>1.066937030238202</v>
+        <v>1.024046685959083</v>
       </c>
       <c r="M25">
-        <v>1.075855669620245</v>
+        <v>1.031225736261014</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
